--- a/csv_files/Try 3/Output_j2.xlsx
+++ b/csv_files/Try 3/Output_j2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\csv_files\Try 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A95550-BA95-4D51-9581-3090831868B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBBF70-FF1C-4462-A068-E41C328E2FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LCOH" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="29">
   <si>
     <t>longitude</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Total yearly cost</t>
+  </si>
+  <si>
+    <t>Present Value Costs</t>
+  </si>
+  <si>
+    <t>NPV Costs</t>
   </si>
 </sst>
 </file>
@@ -497,16 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A90E90-FECB-43E7-9E2E-B6CB30A51161}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -537,6 +545,9 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -556,12 +567,16 @@
         <v>542502844.03413725</v>
       </c>
       <c r="E3">
-        <f>SUM(O23:Y23)</f>
+        <f t="shared" ref="E3:E18" si="0">SUM(O23:Y23)</f>
         <v>7742211262.7867403</v>
       </c>
       <c r="F3">
-        <f>E3/D3</f>
-        <v>14.271282349811161</v>
+        <f>AK23</f>
+        <v>3708808183.870986</v>
+      </c>
+      <c r="G3">
+        <f>F3/D3</f>
+        <v>6.8364769413773017</v>
       </c>
       <c r="Q3">
         <v>2020</v>
@@ -605,20 +620,24 @@
         <v>56.35</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C18" si="0">M24</f>
+        <f t="shared" ref="C4:C18" si="1">M24</f>
         <v>3.782390921127154</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="1">$Q$8</f>
+        <f t="shared" ref="D4:D18" si="2">$Q$8</f>
         <v>542502844.03413725</v>
       </c>
       <c r="E4">
-        <f>SUM(O24:Y24)</f>
+        <f t="shared" si="0"/>
         <v>7659469188.0543194</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="2">E4/D4</f>
-        <v>14.118763195962792</v>
+        <f t="shared" ref="F4:F18" si="3">AK24</f>
+        <v>3666059386.8265815</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G18" si="4">F4/D4</f>
+        <v>6.75767772859066</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
@@ -665,20 +684,24 @@
         <v>56.35</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.772548060682746</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.772548060682746</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E5">
-        <f>SUM(O25:Y25)</f>
         <v>8759916408.5477924</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>16.147226700984024</v>
+        <f t="shared" si="3"/>
+        <v>4216700471.2903428</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>7.772679014794261</v>
       </c>
       <c r="P5" t="s">
         <v>21</v>
@@ -688,43 +711,43 @@
         <v>1</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:AA5" si="3">1/(1+$R$1)^R4</f>
+        <f t="shared" ref="R5:AA5" si="5">1/(1+$R$1)^R4</f>
         <v>0.79383224102016958</v>
       </c>
       <c r="S5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63016962688310452</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.50024896713145905</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.39711375864599124</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31524170496588994</v>
       </c>
       <c r="W5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25024902911609154</v>
       </c>
       <c r="X5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19865574759634863</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1576993373059466</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12518681834097523</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.9377332549801231E-2</v>
       </c>
     </row>
@@ -736,20 +759,24 @@
         <v>56.35</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.7867178195295779</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>3.7867178195295779</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E6">
-        <f>SUM(O26:Y26)</f>
         <v>7663741854.0166969</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>14.126639036632318</v>
+        <f t="shared" si="3"/>
+        <v>3667752809.8281498</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>6.7607992292799013</v>
       </c>
       <c r="P6" t="s">
         <v>22</v>
@@ -759,43 +786,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R6">
-        <f t="shared" ref="R6:AA6" si="4">1000*121425.742574257</f>
+        <f t="shared" ref="R6:AA6" si="6">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="S6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="T6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="W6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="X6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>121425742.574257</v>
       </c>
     </row>
@@ -807,20 +834,24 @@
         <v>55.35</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>3.8201873077358641</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.8201873077358641</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E7">
-        <f>SUM(O27:Y27)</f>
         <v>7752474046.0868301</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>14.290199823540467</v>
+        <f t="shared" si="3"/>
+        <v>3713999646.3678293</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>6.8460464073329801</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -830,43 +861,43 @@
         <v>121425742.574257</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:AA7" si="5">R6*R5</f>
+        <f t="shared" ref="R7:AA7" si="7">R6*R5</f>
         <v>96391669.34526065</v>
       </c>
       <c r="S7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>76518814.892023429</v>
       </c>
       <c r="T7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60743102.305942498</v>
       </c>
       <c r="U7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>48219833.030043758</v>
       </c>
       <c r="V7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>38278458.115858026</v>
       </c>
       <c r="W7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>30386674.188908275</v>
       </c>
       <c r="X7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24121921.668530803</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19148759.135842796</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15200902.377561532</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12066966.399908496</v>
       </c>
     </row>
@@ -878,20 +909,24 @@
         <v>55.35</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>3.8111407571976148</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.8111407571976148</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E8">
-        <f>SUM(O28:Y28)</f>
         <v>7731689615.5989933</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>14.251887710126868</v>
+        <f t="shared" si="3"/>
+        <v>3703831844.9768586</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>6.8273040145459465</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>24</v>
@@ -909,20 +944,24 @@
         <v>55.35</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3.8144270935802358</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>3.8144270935802358</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E9">
-        <f>SUM(O29:Y29)</f>
         <v>7734502171.6378803</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>14.257072118042542</v>
+        <f t="shared" si="3"/>
+        <v>3704784415.5486279</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>6.8290598957956847</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -933,20 +972,24 @@
         <v>55.35</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>3.8246003672829998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>3.8246003672829998</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E10">
-        <f>SUM(O30:Y30)</f>
         <v>7754851071.6128864</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>14.294581414443071</v>
+        <f t="shared" si="3"/>
+        <v>3714299370.9989829</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>6.8465988922359617</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -957,20 +1000,24 @@
         <v>54.35</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>3.823564337150462</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>3.823564337150462</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E11">
-        <f>SUM(O31:Y31)</f>
         <v>7772631350.1105595</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>14.327355949532059</v>
+        <f t="shared" si="3"/>
+        <v>3726245637.6217065</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>6.8686195447617431</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -981,20 +1028,24 @@
         <v>54.35</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>3.8176552431905839</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.8176552431905839</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E12">
-        <f>SUM(O32:Y32)</f>
         <v>7752829355.7996559</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>14.290854768886346</v>
+        <f t="shared" si="3"/>
+        <v>3715384055.0061016</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>6.8485982992787946</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1005,20 +1056,24 @@
         <v>54.35</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>3.813733983016049</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>3.813733983016049</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E13">
-        <f>SUM(O33:Y33)</f>
         <v>7741340096.7103786</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>14.269676522144188</v>
+        <f t="shared" si="3"/>
+        <v>3709263865.2500501</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>6.8373169026495333</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1029,20 +1084,24 @@
         <v>54.35</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3.8275763981345241</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>3.8275763981345241</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E14">
-        <f>SUM(O34:Y34)</f>
         <v>7785857061.9877014</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>14.351735014126069</v>
+        <f t="shared" si="3"/>
+        <v>3733358113.6388812</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>6.8817300309009219</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1053,20 +1112,24 @@
         <v>53.35</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>3.8823090845741</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>3.8823090845741</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E15">
-        <f>SUM(O35:Y35)</f>
         <v>7916817428.338666</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>14.593135345554975</v>
+        <f t="shared" si="3"/>
+        <v>3799913649.9962287</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>7.0044124040704885</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1077,23 +1140,27 @@
         <v>53.35</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>4.0637573661759383</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>4.0637573661759383</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E16">
-        <f>SUM(O36:Y36)</f>
         <v>8427320794.3339758</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>15.534150441806132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4067874213.5962853</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>7.4983463374070576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6.78</v>
       </c>
@@ -1101,23 +1168,27 @@
         <v>53.35</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>4.2630541245738591</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>4.2630541245738591</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E17">
-        <f>SUM(O37:Y37)</f>
         <v>8975669551.3841972</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>16.544926261841677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4352248166.7198658</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>8.0225352080292485</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7.78</v>
       </c>
@@ -1125,31 +1196,41 @@
         <v>53.35</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.6123535284134354</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>542502844.03413725</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.6123535284134354</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>542502844.03413725</v>
-      </c>
-      <c r="E18">
-        <f>SUM(O38:Y38)</f>
         <v>9883423876.0660419</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>18.218197350950888</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4809837309.0322876</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>8.8660130761077198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="O21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,8 +1303,41 @@
       <c r="Y22">
         <v>2050</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>2020</v>
+      </c>
+      <c r="AA22">
+        <v>2023</v>
+      </c>
+      <c r="AB22">
+        <v>2026</v>
+      </c>
+      <c r="AC22">
+        <v>2029</v>
+      </c>
+      <c r="AD22">
+        <v>2032</v>
+      </c>
+      <c r="AE22">
+        <v>2035</v>
+      </c>
+      <c r="AF22">
+        <v>2038</v>
+      </c>
+      <c r="AG22">
+        <v>2041</v>
+      </c>
+      <c r="AH22">
+        <v>2044</v>
+      </c>
+      <c r="AI22">
+        <v>2047</v>
+      </c>
+      <c r="AJ22">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.78</v>
       </c>
@@ -1279,51 +1393,99 @@
         <v>121425742.574257</v>
       </c>
       <c r="O23">
-        <f>C23*$N$23</f>
+        <f t="shared" ref="O23:O38" si="8">C23*$N$23</f>
         <v>1034742860.3526621</v>
       </c>
       <c r="P23">
-        <f>D23*$N$23</f>
+        <f t="shared" ref="P23:P38" si="9">D23*$N$23</f>
         <v>958834029.90085697</v>
       </c>
       <c r="Q23">
-        <f>E23*$N$23</f>
+        <f t="shared" ref="Q23:Q38" si="10">E23*$N$23</f>
         <v>882439079.19037926</v>
       </c>
       <c r="R23">
-        <f>F23*$N$23</f>
+        <f t="shared" ref="R23:R38" si="11">F23*$N$23</f>
         <v>805828982.68939757</v>
       </c>
       <c r="S23">
-        <f>G23*$N$23</f>
+        <f t="shared" ref="S23:S38" si="12">G23*$N$23</f>
         <v>728403836.47527885</v>
       </c>
       <c r="T23">
-        <f>H23*$N$23</f>
+        <f t="shared" ref="T23:T38" si="13">H23*$N$23</f>
         <v>649904617.82447743</v>
       </c>
       <c r="U23">
-        <f>I23*$N$23</f>
+        <f t="shared" ref="U23:U38" si="14">I23*$N$23</f>
         <v>610321160.95798206</v>
       </c>
       <c r="V23">
-        <f>J23*$N$23</f>
+        <f t="shared" ref="V23:V38" si="15">J23*$N$23</f>
         <v>572032540.32087433</v>
       </c>
       <c r="W23">
-        <f>K23*$N$23</f>
+        <f t="shared" ref="W23:W38" si="16">K23*$N$23</f>
         <v>536030780.79354239</v>
       </c>
       <c r="X23">
-        <f>L23*$N$23</f>
+        <f t="shared" ref="X23:X38" si="17">L23*$N$23</f>
         <v>500029021.26620835</v>
       </c>
       <c r="Y23">
-        <f>M23*$N$23</f>
+        <f t="shared" ref="Y23:Y38" si="18">M23*$N$23</f>
         <v>463644353.01508057</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <f>O23*Q$5</f>
+        <v>1034742860.3526621</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" ref="AA23:AJ38" si="19">P23*R$5</f>
+        <v>761153366.7225976</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="19"/>
+        <v>556086305.28047156</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="19"/>
+        <v>403115116.27496552</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="19"/>
+        <v>289259185.31485796</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="19"/>
+        <v>204877039.78819337</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="19"/>
+        <v>152732277.97874084</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="19"/>
+        <v>113637551.94688173</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="19"/>
+        <v>84531698.906730756</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="19"/>
+        <v>62597042.250468463</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="19"/>
+        <v>46075739.054417096</v>
+      </c>
+      <c r="AK23">
+        <f>SUM(Z23:AJ23)</f>
+        <v>3708808183.870986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.78</v>
       </c>
@@ -1375,55 +1537,103 @@
         <v>3.782390921127154</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N38" si="6">1000*121425.742574257</f>
+        <f t="shared" ref="N24:N38" si="20">1000*121425.742574257</f>
         <v>121425742.574257</v>
       </c>
       <c r="O24">
-        <f>C24*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1021594516.6052502</v>
       </c>
       <c r="P24">
-        <f>D24*$N$23</f>
+        <f t="shared" si="9"/>
         <v>946804790.3164537</v>
       </c>
       <c r="Q24">
-        <f>E24*$N$23</f>
+        <f t="shared" si="10"/>
         <v>872018429.68526077</v>
       </c>
       <c r="R24">
-        <f>F24*$N$23</f>
+        <f t="shared" si="11"/>
         <v>797233678.31804371</v>
       </c>
       <c r="S24">
-        <f>G24*$N$23</f>
+        <f t="shared" si="12"/>
         <v>721058698.06460774</v>
       </c>
       <c r="T24">
-        <f>H24*$N$23</f>
+        <f t="shared" si="13"/>
         <v>643652048.63689232</v>
       </c>
       <c r="U24">
-        <f>I24*$N$23</f>
+        <f t="shared" si="14"/>
         <v>604480520.25803113</v>
       </c>
       <c r="V24">
-        <f>J24*$N$23</f>
+        <f t="shared" si="15"/>
         <v>566605306.06163347</v>
       </c>
       <c r="W24">
-        <f>K24*$N$23</f>
+        <f t="shared" si="16"/>
         <v>531210488.24683005</v>
       </c>
       <c r="X24">
-        <f>L24*$N$23</f>
+        <f t="shared" si="17"/>
         <v>495531085.55732459</v>
       </c>
       <c r="Y24">
-        <f>M24*$N$23</f>
+        <f t="shared" si="18"/>
         <v>459279626.30399263</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z38" si="21">O24*Q$5</f>
+        <v>1021594516.6052502</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="19"/>
+        <v>751604168.50554216</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="19"/>
+        <v>549519528.46995151</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="19"/>
+        <v>398815324.14101523</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="19"/>
+        <v>286342329.79282129</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="19"/>
+        <v>202905969.21708184</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="19"/>
+        <v>151270663.31416219</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="19"/>
+        <v>112559400.66773172</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="19"/>
+        <v>83771541.966493428</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="19"/>
+        <v>62033959.989971049</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="19"/>
+        <v>45641984.156560309</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" ref="AK24:AK38" si="22">SUM(Z24:AJ24)</f>
+        <v>3666059386.8265815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.78</v>
       </c>
@@ -1475,55 +1685,103 @@
         <v>3.772548060682746</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O25">
-        <f>C25*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1017992463.474165</v>
       </c>
       <c r="P25">
-        <f>D25*$N$23</f>
+        <f t="shared" si="9"/>
         <v>943668296.80734789</v>
       </c>
       <c r="Q25">
-        <f>E25*$N$23</f>
+        <f t="shared" si="10"/>
         <v>868928307.59078455</v>
       </c>
       <c r="R25">
-        <f>F25*$N$23</f>
+        <f t="shared" si="11"/>
         <v>1920405362.3647344</v>
       </c>
       <c r="S25">
-        <f>G25*$N$23</f>
+        <f t="shared" si="12"/>
         <v>718238222.80354798</v>
       </c>
       <c r="T25">
-        <f>H25*$N$23</f>
+        <f t="shared" si="13"/>
         <v>641476653.23306322</v>
       </c>
       <c r="U25">
-        <f>I25*$N$23</f>
+        <f t="shared" si="14"/>
         <v>602535820.02186286</v>
       </c>
       <c r="V25">
-        <f>J25*$N$23</f>
+        <f t="shared" si="15"/>
         <v>564893232.45052218</v>
       </c>
       <c r="W25">
-        <f>K25*$N$23</f>
+        <f t="shared" si="16"/>
         <v>529603433.04397488</v>
       </c>
       <c r="X25">
-        <f>L25*$N$23</f>
+        <f t="shared" si="17"/>
         <v>494090167.09231365</v>
       </c>
       <c r="Y25">
-        <f>M25*$N$23</f>
+        <f t="shared" si="18"/>
         <v>458084449.66547561</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <f t="shared" si="21"/>
+        <v>1017992463.474165</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="19"/>
+        <v>749114318.83426356</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="19"/>
+        <v>547572227.38265216</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="19"/>
+        <v>960680798.9966737</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="19"/>
+        <v>285222280.26073384</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="19"/>
+        <v>202220193.86100382</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="19"/>
+        <v>150784003.96813926</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="19"/>
+        <v>112219287.40457644</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="19"/>
+        <v>83518110.425989091</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="19"/>
+        <v>61853575.991847567</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="19"/>
+        <v>45523210.690298654</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="22"/>
+        <v>4216700471.2903428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7.78</v>
       </c>
@@ -1575,55 +1833,103 @@
         <v>3.7867178195295779</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O26">
-        <f>C26*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1021946111.3806384</v>
       </c>
       <c r="P26">
-        <f>D26*$N$23</f>
+        <f t="shared" si="9"/>
         <v>947112353.28407919</v>
       </c>
       <c r="Q26">
-        <f>E26*$N$23</f>
+        <f t="shared" si="10"/>
         <v>872298789.13315117</v>
       </c>
       <c r="R26">
-        <f>F26*$N$23</f>
+        <f t="shared" si="11"/>
         <v>797494880.56609488</v>
       </c>
       <c r="S26">
-        <f>G26*$N$23</f>
+        <f t="shared" si="12"/>
         <v>721704752.47144902</v>
       </c>
       <c r="T26">
-        <f>H26*$N$23</f>
+        <f t="shared" si="13"/>
         <v>644340421.77387452</v>
       </c>
       <c r="U26">
-        <f>I26*$N$23</f>
+        <f t="shared" si="14"/>
         <v>605075078.44611239</v>
       </c>
       <c r="V26">
-        <f>J26*$N$23</f>
+        <f t="shared" si="15"/>
         <v>567079710.32509899</v>
       </c>
       <c r="W26">
-        <f>K26*$N$23</f>
+        <f t="shared" si="16"/>
         <v>531321481.26858288</v>
       </c>
       <c r="X26">
-        <f>L26*$N$23</f>
+        <f t="shared" si="17"/>
         <v>495563252.21206468</v>
       </c>
       <c r="Y26">
-        <f>M26*$N$23</f>
+        <f t="shared" si="18"/>
         <v>459805023.1555503</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <f t="shared" si="21"/>
+        <v>1021946111.3806384</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="19"/>
+        <v>751848321.90538716</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="19"/>
+        <v>549696202.47862172</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="19"/>
+        <v>398945990.29581529</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="19"/>
+        <v>286598886.88661188</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="19"/>
+        <v>203122973.13843682</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="19"/>
+        <v>151419450.92348254</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="19"/>
+        <v>112653643.80135337</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="19"/>
+        <v>83789045.492469445</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="19"/>
+        <v>62037986.831134632</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="19"/>
+        <v>45694196.694198176</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="22"/>
+        <v>3667752809.8281498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4.78</v>
       </c>
@@ -1675,55 +1981,103 @@
         <v>3.8201873077358641</v>
       </c>
       <c r="N27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O27">
-        <f>C27*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1036055949.9907491</v>
       </c>
       <c r="P27">
-        <f>D27*$N$23</f>
+        <f t="shared" si="9"/>
         <v>959910951.85135996</v>
       </c>
       <c r="Q27">
-        <f>E27*$N$23</f>
+        <f t="shared" si="10"/>
         <v>883799610.28802323</v>
       </c>
       <c r="R27">
-        <f>F27*$N$23</f>
+        <f t="shared" si="11"/>
         <v>807637516.32692254</v>
       </c>
       <c r="S27">
-        <f>G27*$N$23</f>
+        <f t="shared" si="12"/>
         <v>729775312.33264542</v>
       </c>
       <c r="T27">
-        <f>H27*$N$23</f>
+        <f t="shared" si="13"/>
         <v>650705352.88338327</v>
       </c>
       <c r="U27">
-        <f>I27*$N$23</f>
+        <f t="shared" si="14"/>
         <v>611035905.92537498</v>
       </c>
       <c r="V27">
-        <f>J27*$N$23</f>
+        <f t="shared" si="15"/>
         <v>572661295.19675457</v>
       </c>
       <c r="W27">
-        <f>K27*$N$23</f>
+        <f t="shared" si="16"/>
         <v>536573545.57791001</v>
       </c>
       <c r="X27">
-        <f>L27*$N$23</f>
+        <f t="shared" si="17"/>
         <v>500449525.09912705</v>
       </c>
       <c r="Y27">
-        <f>M27*$N$23</f>
+        <f t="shared" si="18"/>
         <v>463869080.61457896</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <f t="shared" si="21"/>
+        <v>1036055949.9907491</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="19"/>
+        <v>762008262.08796918</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="19"/>
+        <v>556943670.65463674</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="19"/>
+        <v>404019833.35915989</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="19"/>
+        <v>289803817.24746901</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="19"/>
+        <v>205129464.8733888</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="19"/>
+        <v>152911142.21289653</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="19"/>
+        <v>113762457.71680456</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="19"/>
+        <v>84617292.553538546</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="19"/>
+        <v>62649683.787411742</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="19"/>
+        <v>46098071.883805566</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="22"/>
+        <v>3713999646.3678293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.78</v>
       </c>
@@ -1775,55 +2129,103 @@
         <v>3.8111407571976148</v>
       </c>
       <c r="N28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O28">
-        <f>C28*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1033278964.5922257</v>
       </c>
       <c r="P28">
-        <f>D28*$N$23</f>
+        <f t="shared" si="9"/>
         <v>957419914.86775434</v>
       </c>
       <c r="Q28">
-        <f>E28*$N$23</f>
+        <f t="shared" si="10"/>
         <v>881182000.13803518</v>
       </c>
       <c r="R28">
-        <f>F28*$N$23</f>
+        <f t="shared" si="11"/>
         <v>804915790.99100542</v>
       </c>
       <c r="S28">
-        <f>G28*$N$23</f>
+        <f t="shared" si="12"/>
         <v>727778255.16877317</v>
       </c>
       <c r="T28">
-        <f>H28*$N$23</f>
+        <f t="shared" si="13"/>
         <v>649247634.69007921</v>
       </c>
       <c r="U28">
-        <f>I28*$N$23</f>
+        <f t="shared" si="14"/>
         <v>609579892.16231561</v>
       </c>
       <c r="V28">
-        <f>J28*$N$23</f>
+        <f t="shared" si="15"/>
         <v>571133755.67517269</v>
       </c>
       <c r="W28">
-        <f>K28*$N$23</f>
+        <f t="shared" si="16"/>
         <v>535276547.1118775</v>
       </c>
       <c r="X28">
-        <f>L28*$N$23</f>
+        <f t="shared" si="17"/>
         <v>499106263.70401824</v>
       </c>
       <c r="Y28">
-        <f>M28*$N$23</f>
+        <f t="shared" si="18"/>
         <v>462770596.49773645</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <f t="shared" si="21"/>
+        <v>1033278964.5922257</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="19"/>
+        <v>760030796.61680937</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="19"/>
+        <v>555294132.24309337</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="19"/>
+        <v>402658293.07105184</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="19"/>
+        <v>289010758.37089282</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="19"/>
+        <v>204669931.30477184</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="19"/>
+        <v>152546776.18231127</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="19"/>
+        <v>113459003.21116175</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="19"/>
+        <v>84412756.754958391</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="19"/>
+        <v>62481525.167157806</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="19"/>
+        <v>45988907.462425433</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="22"/>
+        <v>3703831844.9768586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.78</v>
       </c>
@@ -1875,55 +2277,103 @@
         <v>3.8144270935802358</v>
       </c>
       <c r="N29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O29">
-        <f>C29*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1033509182.9924321</v>
       </c>
       <c r="P29">
-        <f>D29*$N$23</f>
+        <f t="shared" si="9"/>
         <v>957553388.36955714</v>
       </c>
       <c r="Q29">
-        <f>E29*$N$23</f>
+        <f t="shared" si="10"/>
         <v>881530982.37903547</v>
       </c>
       <c r="R29">
-        <f>F29*$N$23</f>
+        <f t="shared" si="11"/>
         <v>805110688.05359924</v>
       </c>
       <c r="S29">
-        <f>G29*$N$23</f>
+        <f t="shared" si="12"/>
         <v>727729176.38597691</v>
       </c>
       <c r="T29">
-        <f>H29*$N$23</f>
+        <f t="shared" si="13"/>
         <v>649329473.88466716</v>
       </c>
       <c r="U29">
-        <f>I29*$N$23</f>
+        <f t="shared" si="14"/>
         <v>609795315.07015538</v>
       </c>
       <c r="V29">
-        <f>J29*$N$23</f>
+        <f t="shared" si="15"/>
         <v>571555992.48503149</v>
       </c>
       <c r="W29">
-        <f>K29*$N$23</f>
+        <f t="shared" si="16"/>
         <v>535603531.00968313</v>
       </c>
       <c r="X29">
-        <f>L29*$N$23</f>
+        <f t="shared" si="17"/>
         <v>499614798.67439657</v>
       </c>
       <c r="Y29">
-        <f>M29*$N$23</f>
+        <f t="shared" si="18"/>
         <v>463169642.33334506</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <f t="shared" si="21"/>
+        <v>1033509182.9924321</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="19"/>
+        <v>760136752.1858623</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="19"/>
+        <v>555514050.25169337</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="19"/>
+        <v>402755790.12531137</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="19"/>
+        <v>288991268.5109868</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="19"/>
+        <v>204695730.43200678</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="19"/>
+        <v>152600685.55584753</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="19"/>
+        <v>113542882.98028696</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="19"/>
+        <v>84464321.898952052</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="19"/>
+        <v>62545187.042114593</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="19"/>
+        <v>46028563.573133327</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="22"/>
+        <v>3704784415.5486279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.78</v>
       </c>
@@ -1975,55 +2425,103 @@
         <v>3.8246003672829998</v>
       </c>
       <c r="N30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O30">
-        <f>C30*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1035968768.4594378</v>
       </c>
       <c r="P30">
-        <f>D30*$N$23</f>
+        <f t="shared" si="9"/>
         <v>959819688.97308779</v>
       </c>
       <c r="Q30">
-        <f>E30*$N$23</f>
+        <f t="shared" si="10"/>
         <v>883707631.72039568</v>
       </c>
       <c r="R30">
-        <f>F30*$N$23</f>
+        <f t="shared" si="11"/>
         <v>807613276.37147164</v>
       </c>
       <c r="S30">
-        <f>G30*$N$23</f>
+        <f t="shared" si="12"/>
         <v>729940601.82967734</v>
       </c>
       <c r="T30">
-        <f>H30*$N$23</f>
+        <f t="shared" si="13"/>
         <v>651100349.53024805</v>
       </c>
       <c r="U30">
-        <f>I30*$N$23</f>
+        <f t="shared" si="14"/>
         <v>611414501.59606159</v>
       </c>
       <c r="V30">
-        <f>J30*$N$23</f>
+        <f t="shared" si="15"/>
         <v>573049828.86697817</v>
       </c>
       <c r="W30">
-        <f>K30*$N$23</f>
+        <f t="shared" si="16"/>
         <v>536970343.00521481</v>
       </c>
       <c r="X30">
-        <f>L30*$N$23</f>
+        <f t="shared" si="17"/>
         <v>500861141.61319786</v>
       </c>
       <c r="Y30">
-        <f>M30*$N$23</f>
+        <f t="shared" si="18"/>
         <v>464404939.64711434</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <f t="shared" si="21"/>
+        <v>1035968768.4594378</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="19"/>
+        <v>761935814.67278838</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="19"/>
+        <v>556885708.55499363</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="19"/>
+        <v>404007707.34648228</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="19"/>
+        <v>289869455.98090011</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="19"/>
+        <v>205253984.28980225</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="19"/>
+        <v>153005885.41191342</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="19"/>
+        <v>113839642.16352919</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="19"/>
+        <v>84679867.244869217</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="19"/>
+        <v>62701212.749184869</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="19"/>
+        <v>46151324.125081651</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="22"/>
+        <v>3714299370.9989829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.78</v>
       </c>
@@ -2075,55 +2573,103 @@
         <v>3.823564337150462</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O31">
-        <f>C31*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1040332519.3779212</v>
       </c>
       <c r="P31">
-        <f>D31*$N$23</f>
+        <f t="shared" si="9"/>
         <v>963594577.44246721</v>
       </c>
       <c r="Q31">
-        <f>E31*$N$23</f>
+        <f t="shared" si="10"/>
         <v>886947508.26235926</v>
       </c>
       <c r="R31">
-        <f>F31*$N$23</f>
+        <f t="shared" si="11"/>
         <v>810169676.45032072</v>
       </c>
       <c r="S31">
-        <f>G31*$N$23</f>
+        <f t="shared" si="12"/>
         <v>731824025.39584398</v>
       </c>
       <c r="T31">
-        <f>H31*$N$23</f>
+        <f t="shared" si="13"/>
         <v>651905902.53173685</v>
       </c>
       <c r="U31">
-        <f>I31*$N$23</f>
+        <f t="shared" si="14"/>
         <v>612112174.06229329</v>
       </c>
       <c r="V31">
-        <f>J31*$N$23</f>
+        <f t="shared" si="15"/>
         <v>573346996.94201493</v>
       </c>
       <c r="W31">
-        <f>K31*$N$23</f>
+        <f t="shared" si="16"/>
         <v>537167366.17620444</v>
       </c>
       <c r="X31">
-        <f>L31*$N$23</f>
+        <f t="shared" si="17"/>
         <v>500951464.55045569</v>
       </c>
       <c r="Y31">
-        <f>M31*$N$23</f>
+        <f t="shared" si="18"/>
         <v>464279138.91894162</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <f t="shared" si="21"/>
+        <v>1040332519.3779212</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="19"/>
+        <v>764932442.84603715</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="19"/>
+        <v>558927380.34659016</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="19"/>
+        <v>405286543.8455013</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="19"/>
+        <v>290617389.39238298</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="19"/>
+        <v>205507928.191432</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="19"/>
+        <v>153180477.26922894</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="19"/>
+        <v>113898676.30963738</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="19"/>
+        <v>84710937.668368191</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="19"/>
+        <v>62712519.990323387</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="19"/>
+        <v>46138822.384283021</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="22"/>
+        <v>3726245637.6217065</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.78</v>
       </c>
@@ -2175,55 +2721,103 @@
         <v>3.8176552431905839</v>
       </c>
       <c r="N32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O32">
-        <f>C32*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1036810812.8226986</v>
       </c>
       <c r="P32">
-        <f>D32*$N$23</f>
+        <f t="shared" si="9"/>
         <v>960509232.94034696</v>
       </c>
       <c r="Q32">
-        <f>E32*$N$23</f>
+        <f t="shared" si="10"/>
         <v>884308622.78615797</v>
       </c>
       <c r="R32">
-        <f>F32*$N$23</f>
+        <f t="shared" si="11"/>
         <v>807821026.20925677</v>
       </c>
       <c r="S32">
-        <f>G32*$N$23</f>
+        <f t="shared" si="12"/>
         <v>729944413.94171381</v>
       </c>
       <c r="T32">
-        <f>H32*$N$23</f>
+        <f t="shared" si="13"/>
         <v>650545685.25581205</v>
       </c>
       <c r="U32">
-        <f>I32*$N$23</f>
+        <f t="shared" si="14"/>
         <v>610842658.6618166</v>
       </c>
       <c r="V32">
-        <f>J32*$N$23</f>
+        <f t="shared" si="15"/>
         <v>572215481.36115265</v>
       </c>
       <c r="W32">
-        <f>K32*$N$23</f>
+        <f t="shared" si="16"/>
         <v>536173850.41495645</v>
       </c>
       <c r="X32">
-        <f>L32*$N$23</f>
+        <f t="shared" si="17"/>
         <v>500095948.60882193</v>
       </c>
       <c r="Y32">
-        <f>M32*$N$23</f>
+        <f t="shared" si="18"/>
         <v>463561622.79692233</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <f t="shared" si="21"/>
+        <v>1036810812.8226986</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="19"/>
+        <v>762483196.90559971</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="19"/>
+        <v>557264434.87066519</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="19"/>
+        <v>404111633.98825604</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="19"/>
+        <v>289870969.82303929</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="19"/>
+        <v>205079130.97824541</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="19"/>
+        <v>152862782.27281171</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="19"/>
+        <v>113673894.23600428</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="19"/>
+        <v>84554260.891216367</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="19"/>
+        <v>62605420.671550274</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="19"/>
+        <v>46067517.54601527</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="22"/>
+        <v>3715384055.0061016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.78</v>
       </c>
@@ -2275,55 +2869,103 @@
         <v>3.813733983016049</v>
       </c>
       <c r="N33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O33">
-        <f>C33*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1034899262.2234997</v>
       </c>
       <c r="P33">
-        <f>D33*$N$23</f>
+        <f t="shared" si="9"/>
         <v>958822448.68162882</v>
       </c>
       <c r="Q33">
-        <f>E33*$N$23</f>
+        <f t="shared" si="10"/>
         <v>882762463.42778313</v>
       </c>
       <c r="R33">
-        <f>F33*$N$23</f>
+        <f t="shared" si="11"/>
         <v>806450230.3571105</v>
       </c>
       <c r="S33">
-        <f>G33*$N$23</f>
+        <f t="shared" si="12"/>
         <v>728892866.29533207</v>
       </c>
       <c r="T33">
-        <f>H33*$N$23</f>
+        <f t="shared" si="13"/>
         <v>649808650.51280379</v>
       </c>
       <c r="U33">
-        <f>I33*$N$23</f>
+        <f t="shared" si="14"/>
         <v>610025873.82950175</v>
       </c>
       <c r="V33">
-        <f>J33*$N$23</f>
+        <f t="shared" si="15"/>
         <v>571510713.49272263</v>
       </c>
       <c r="W33">
-        <f>K33*$N$23</f>
+        <f t="shared" si="16"/>
         <v>535583353.8899979</v>
       </c>
       <c r="X33">
-        <f>L33*$N$23</f>
+        <f t="shared" si="17"/>
         <v>499498753.13159567</v>
       </c>
       <c r="Y33">
-        <f>M33*$N$23</f>
+        <f t="shared" si="18"/>
         <v>463085480.8684026</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <f t="shared" si="21"/>
+        <v>1034899262.2234997</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="19"/>
+        <v>761144173.1773839</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="19"/>
+        <v>556290092.2046963</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="19"/>
+        <v>403425894.77907175</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="19"/>
+        <v>289453385.78478926</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="19"/>
+        <v>204846786.88924038</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="19"/>
+        <v>152658382.66152817</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="19"/>
+        <v>113533888.04821943</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="19"/>
+        <v>84461139.980548948</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="19"/>
+        <v>62530659.669828698</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="19"/>
+        <v>46020199.831243858</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="22"/>
+        <v>3709263865.2500501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7.78</v>
       </c>
@@ -2375,55 +3017,103 @@
         <v>3.8275763981345241</v>
       </c>
       <c r="N34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O34">
-        <f>C34*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1042695193.9793843</v>
       </c>
       <c r="P34">
-        <f>D34*$N$23</f>
+        <f t="shared" si="9"/>
         <v>965615932.08554268</v>
       </c>
       <c r="Q34">
-        <f>E34*$N$23</f>
+        <f t="shared" si="10"/>
         <v>888587155.05578077</v>
       </c>
       <c r="R34">
-        <f>F34*$N$23</f>
+        <f t="shared" si="11"/>
         <v>811582516.98570395</v>
       </c>
       <c r="S34">
-        <f>G34*$N$23</f>
+        <f t="shared" si="12"/>
         <v>732864229.65813673</v>
       </c>
       <c r="T34">
-        <f>H34*$N$23</f>
+        <f t="shared" si="13"/>
         <v>652957605.57988453</v>
       </c>
       <c r="U34">
-        <f>I34*$N$23</f>
+        <f t="shared" si="14"/>
         <v>613073092.25988495</v>
       </c>
       <c r="V34">
-        <f>J34*$N$23</f>
+        <f t="shared" si="15"/>
         <v>574229877.86002588</v>
       </c>
       <c r="W34">
-        <f>K34*$N$23</f>
+        <f t="shared" si="16"/>
         <v>537943072.56152666</v>
       </c>
       <c r="X34">
-        <f>L34*$N$23</f>
+        <f t="shared" si="17"/>
         <v>501542079.55864608</v>
       </c>
       <c r="Y34">
-        <f>M34*$N$23</f>
+        <f t="shared" si="18"/>
         <v>464766306.40318453</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <f t="shared" si="21"/>
+        <v>1042695193.9793843</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="19"/>
+        <v>766537059.33224618</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="19"/>
+        <v>559960635.95462072</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="19"/>
+        <v>405993315.86404824</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="19"/>
+        <v>291030468.81674159</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="19"/>
+        <v>205839468.85344788</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="19"/>
+        <v>153420946.11523622</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="19"/>
+        <v>114074065.6784434</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>84833266.051277503</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="19"/>
+        <v>62786457.20406317</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="19"/>
+        <v>46187235.789372079</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="22"/>
+        <v>3733358113.6388812</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.78</v>
       </c>
@@ -2475,55 +3165,103 @@
         <v>3.8823090845741</v>
       </c>
       <c r="N35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O35">
-        <f>C35*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1062710338.5356826</v>
       </c>
       <c r="P35">
-        <f>D35*$N$23</f>
+        <f t="shared" si="9"/>
         <v>983714252.86879778</v>
       </c>
       <c r="Q35">
-        <f>E35*$N$23</f>
+        <f t="shared" si="10"/>
         <v>904639266.13735914</v>
       </c>
       <c r="R35">
-        <f>F35*$N$23</f>
+        <f t="shared" si="11"/>
         <v>825490444.49022901</v>
       </c>
       <c r="S35">
-        <f>G35*$N$23</f>
+        <f t="shared" si="12"/>
         <v>745216055.31690979</v>
       </c>
       <c r="T35">
-        <f>H35*$N$23</f>
+        <f t="shared" si="13"/>
         <v>663228863.21790969</v>
       </c>
       <c r="U35">
-        <f>I35*$N$23</f>
+        <f t="shared" si="14"/>
         <v>622548590.61148322</v>
       </c>
       <c r="V35">
-        <f>J35*$N$23</f>
+        <f t="shared" si="15"/>
         <v>582976197.6501013</v>
       </c>
       <c r="W35">
-        <f>K35*$N$23</f>
+        <f t="shared" si="16"/>
         <v>545964541.50767934</v>
       </c>
       <c r="X35">
-        <f>L35*$N$23</f>
+        <f t="shared" si="17"/>
         <v>508916614.50531924</v>
       </c>
       <c r="Y35">
-        <f>M35*$N$23</f>
+        <f t="shared" si="18"/>
         <v>471412263.49719399</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <f t="shared" si="21"/>
+        <v>1062710338.5356826</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="19"/>
+        <v>780904089.8783195</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="19"/>
+        <v>570076188.80558515</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="19"/>
+        <v>412950742.2331261</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="19"/>
+        <v>295935548.73023695</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="19"/>
+        <v>209077397.62340286</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="19"/>
+        <v>155792180.37811482</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="19"/>
+        <v>115811572.37505758</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="19"/>
+        <v>86098246.388306007</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="19"/>
+        <v>63709651.770781517</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="19"/>
+        <v>46847693.277615175</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="22"/>
+        <v>3799913649.9962287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5.78</v>
       </c>
@@ -2575,55 +3313,103 @@
         <v>4.0637573661759383</v>
       </c>
       <c r="N36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O36">
-        <f>C36*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1144844426.5136406</v>
       </c>
       <c r="P36">
-        <f>D36*$N$23</f>
+        <f t="shared" si="9"/>
         <v>1057346855.1773825</v>
       </c>
       <c r="Q36">
-        <f>E36*$N$23</f>
+        <f t="shared" si="10"/>
         <v>971095435.84601963</v>
       </c>
       <c r="R36">
-        <f>F36*$N$23</f>
+        <f t="shared" si="11"/>
         <v>883525240.8665669</v>
       </c>
       <c r="S36">
-        <f>G36*$N$23</f>
+        <f t="shared" si="12"/>
         <v>793822597.24737644</v>
       </c>
       <c r="T36">
-        <f>H36*$N$23</f>
+        <f t="shared" si="13"/>
         <v>701757302.82001305</v>
       </c>
       <c r="U36">
-        <f>I36*$N$23</f>
+        <f t="shared" si="14"/>
         <v>657689873.70829141</v>
       </c>
       <c r="V36">
-        <f>J36*$N$23</f>
+        <f t="shared" si="15"/>
         <v>614864773.32968593</v>
       </c>
       <c r="W36">
-        <f>K36*$N$23</f>
+        <f t="shared" si="16"/>
         <v>574610192.39503491</v>
       </c>
       <c r="X36">
-        <f>L36*$N$23</f>
+        <f t="shared" si="17"/>
         <v>534319340.60044527</v>
       </c>
       <c r="Y36">
-        <f>M36*$N$23</f>
+        <f t="shared" si="18"/>
         <v>493444755.82952011</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <f t="shared" si="21"/>
+        <v>1144844426.5136406</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="19"/>
+        <v>839356023.58109021</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="19"/>
+        <v>611954848.47497189</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="19"/>
+        <v>441982589.17807364</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="19"/>
+        <v>315237875.29102856</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="19"/>
+        <v>221223168.61324522</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" si="19"/>
+        <v>164586252.35498479</v>
+      </c>
+      <c r="AG36">
+        <f t="shared" si="19"/>
+        <v>122146421.2164682</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="19"/>
+        <v>90615646.549939483</v>
+      </c>
+      <c r="AI36">
+        <f t="shared" si="19"/>
+        <v>66889738.22781761</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="19"/>
+        <v>49037223.595025688</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="22"/>
+        <v>4067874213.5962853</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.78</v>
       </c>
@@ -2675,55 +3461,103 @@
         <v>4.2630541245738591</v>
       </c>
       <c r="N37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O37">
-        <f>C37*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1231862833.3688161</v>
       </c>
       <c r="P37">
-        <f>D37*$N$23</f>
+        <f t="shared" si="9"/>
         <v>1133365064.7276475</v>
       </c>
       <c r="Q37">
-        <f>E37*$N$23</f>
+        <f t="shared" si="10"/>
         <v>1039837824.0952071</v>
       </c>
       <c r="R37">
-        <f>F37*$N$23</f>
+        <f t="shared" si="11"/>
         <v>946407643.84557688</v>
       </c>
       <c r="S37">
-        <f>G37*$N$23</f>
+        <f t="shared" si="12"/>
         <v>847349322.7787441</v>
       </c>
       <c r="T37">
-        <f>H37*$N$23</f>
+        <f t="shared" si="13"/>
         <v>744282201.58829725</v>
       </c>
       <c r="U37">
-        <f>I37*$N$23</f>
+        <f t="shared" si="14"/>
         <v>696444103.64159489</v>
       </c>
       <c r="V37">
-        <f>J37*$N$23</f>
+        <f t="shared" si="15"/>
         <v>650050520.28449416</v>
       </c>
       <c r="W37">
-        <f>K37*$N$23</f>
+        <f t="shared" si="16"/>
         <v>606312354.40853643</v>
       </c>
       <c r="X37">
-        <f>L37*$N$23</f>
+        <f t="shared" si="17"/>
         <v>562113169.93465352</v>
       </c>
       <c r="Y37">
-        <f>M37*$N$23</f>
+        <f t="shared" si="18"/>
         <v>517644512.71062994</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <f t="shared" si="21"/>
+        <v>1231862833.3688161</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="19"/>
+        <v>899701729.22671795</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="19"/>
+        <v>655274213.62901592</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" si="19"/>
+        <v>473439446.3190676</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="19"/>
+        <v>336494074.45480233</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="19"/>
+        <v>234628790.20446101</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="19"/>
+        <v>174284460.76993576</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" si="19"/>
+        <v>129136272.08251157</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="19"/>
+        <v>95615056.490634426</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" si="19"/>
+        <v>70369159.291679204</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="19"/>
+        <v>51442130.882224083</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="22"/>
+        <v>4352248166.7198658</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.78</v>
       </c>
@@ -2775,52 +3609,100 @@
         <v>4.6123535284134354</v>
       </c>
       <c r="N38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>121425742.574257</v>
       </c>
       <c r="O38">
-        <f>C38*$N$23</f>
+        <f t="shared" si="8"/>
         <v>1368072679.5983775</v>
       </c>
       <c r="P38">
-        <f>D38*$N$23</f>
+        <f t="shared" si="9"/>
         <v>1253266292.0679939</v>
       </c>
       <c r="Q38">
-        <f>E38*$N$23</f>
+        <f t="shared" si="10"/>
         <v>1147966258.1441243</v>
       </c>
       <c r="R38">
-        <f>F38*$N$23</f>
+        <f t="shared" si="11"/>
         <v>1045206770.2263337</v>
       </c>
       <c r="S38">
-        <f>G38*$N$23</f>
+        <f t="shared" si="12"/>
         <v>938262461.286816</v>
       </c>
       <c r="T38">
-        <f>H38*$N$23</f>
+        <f t="shared" si="13"/>
         <v>819751318.83598816</v>
       </c>
       <c r="U38">
-        <f>I38*$N$23</f>
+        <f t="shared" si="14"/>
         <v>765297722.37836683</v>
       </c>
       <c r="V38">
-        <f>J38*$N$23</f>
+        <f t="shared" si="15"/>
         <v>712251115.10469043</v>
       </c>
       <c r="W38">
-        <f>K38*$N$23</f>
+        <f t="shared" si="16"/>
         <v>662006495.32332182</v>
       </c>
       <c r="X38">
-        <f>L38*$N$23</f>
+        <f t="shared" si="17"/>
         <v>611284310.89743423</v>
       </c>
       <c r="Y38">
-        <f>M38*$N$23</f>
+        <f t="shared" si="18"/>
         <v>560058452.20259583</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="21"/>
+        <v>1368072679.5983775</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="19"/>
+        <v>994883189.22737396</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="19"/>
+        <v>723413468.56907642</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" si="19"/>
+        <v>522863607.24453169</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="19"/>
+        <v>372596932.59804636</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="19"/>
+        <v>258419803.39789376</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="19"/>
+        <v>191515012.00994247</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="19"/>
+        <v>141492777.74745524</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="19"/>
+        <v>104397985.60472009</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="19"/>
+        <v>76524737.983005315</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="19"/>
+        <v>55657115.051864326</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="22"/>
+        <v>4809837309.0322876</v>
       </c>
     </row>
   </sheetData>
